--- a/TestNgAss/src/test/resources/testNg_Ass.xlsx
+++ b/TestNgAss/src/test/resources/testNg_Ass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB70A0D-5D83-45A1-AB9E-254920778144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12F5439-1206-4D79-8BC4-E3D3478E9054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CBF5A15-80B0-4A4D-8211-20AEF1C53F2D}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{6CBF5A15-80B0-4A4D-8211-20AEF1C53F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>secret_sauce2</t>
   </si>
   <si>
-    <t>Username and password does not match</t>
+    <t>Username and password do not match any user in this service</t>
   </si>
 </sst>
 </file>
@@ -412,13 +412,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
